--- a/data/trans_dic/P1423-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05219779560984453</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1377731885945433</v>
+        <v>0.1377731885945434</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1134191679449205</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05969520536905202</v>
+        <v>0.0561366994228347</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04168429080650602</v>
+        <v>0.04319516595388716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04023486097492415</v>
+        <v>0.04061579873617402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1091843139720528</v>
+        <v>0.1066179326050919</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09294522964345668</v>
+        <v>0.09372555827735983</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1578208457946026</v>
+        <v>0.1557714563855011</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1398531063332359</v>
+        <v>0.1405103940842419</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1848897782899632</v>
+        <v>0.1847469525549888</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08506040355863018</v>
+        <v>0.08422047688010906</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1067022760670547</v>
+        <v>0.1074107734882852</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09621214772837623</v>
+        <v>0.09556028479515531</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1593327861590486</v>
+        <v>0.1580305918724124</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1030419246681599</v>
+        <v>0.1018582700900018</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0745249776597541</v>
+        <v>0.07397985405317328</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06695288486564678</v>
+        <v>0.06705791258731998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1725395738727377</v>
+        <v>0.1731557633593822</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1363008065599109</v>
+        <v>0.1370023423254539</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2050478387810538</v>
+        <v>0.2037736880727931</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1814863722714256</v>
+        <v>0.1837943038606332</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2401360054087466</v>
+        <v>0.2400086338072563</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1172993698584926</v>
+        <v>0.1156792853397294</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1344976347693688</v>
+        <v>0.1345836449426525</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1226291175205484</v>
+        <v>0.1235768132273554</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1994492224684627</v>
+        <v>0.1991013501710113</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02713383153249313</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04964727931209409</v>
+        <v>0.04964727931209408</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.07114722183393131</v>
@@ -833,7 +833,7 @@
         <v>0.05315009974157488</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.09012108287351601</v>
+        <v>0.090121082873516</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0145933912675608</v>
+        <v>0.01539169514338109</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02559281954454588</v>
+        <v>0.02620808625242642</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01744778645923994</v>
+        <v>0.01789086896277381</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03680988438685542</v>
+        <v>0.03677712817185173</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05609948504366032</v>
+        <v>0.05691309739541521</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07372067221089884</v>
+        <v>0.0753903375623288</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06177311456490839</v>
+        <v>0.06157138434267983</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1101947474200792</v>
+        <v>0.1083054421089873</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03874029152938979</v>
+        <v>0.03856573825411358</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05619467028953712</v>
+        <v>0.05531122945006606</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04334253891887635</v>
+        <v>0.04344713247773917</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07940065167309075</v>
+        <v>0.08019771917696331</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03329252060147356</v>
+        <v>0.03433649467628965</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0520214838286101</v>
+        <v>0.05259478944854691</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03931473962603942</v>
+        <v>0.0393898227218242</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06593176722528402</v>
+        <v>0.06554071797451841</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08920639999921837</v>
+        <v>0.08963150228072558</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1091913490781112</v>
+        <v>0.1098610383129597</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09549998161182439</v>
+        <v>0.09527675154056717</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1438061159684902</v>
+        <v>0.1429107922079072</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05670883931498768</v>
+        <v>0.05741119870359156</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07830104877048437</v>
+        <v>0.07838445302433077</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06448250800481098</v>
+        <v>0.06355757934576677</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1014228027032752</v>
+        <v>0.1028340234139006</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.04355424589559469</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07255989646422997</v>
+        <v>0.07255989646422999</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01062399868007292</v>
+        <v>0.01066841487880057</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02619880281698102</v>
+        <v>0.02698375547117083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01312174432753048</v>
+        <v>0.01266491832899807</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03385532838490109</v>
+        <v>0.03378945784666714</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03824376894798134</v>
+        <v>0.03943466574713108</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06510625328263912</v>
+        <v>0.06427190913145732</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04937955372686669</v>
+        <v>0.04980518914067233</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08579405301115089</v>
+        <v>0.08384036938859006</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0256816679373058</v>
+        <v>0.02547947523476735</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05051545796699845</v>
+        <v>0.04955998455567832</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03375421763752776</v>
+        <v>0.03336704151800045</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06205876987658573</v>
+        <v>0.06204385991076095</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02511403804243858</v>
+        <v>0.02556356420289618</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05377469361310479</v>
+        <v>0.0545058920918081</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03391914939554597</v>
+        <v>0.03321779347730601</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0603741352484322</v>
+        <v>0.05883200268534903</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06576009212894515</v>
+        <v>0.0677110694545556</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1032475576835389</v>
+        <v>0.1024438693573562</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08872224366811367</v>
+        <v>0.08769906029343404</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1176602444590599</v>
+        <v>0.1164746681034677</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04029817802724709</v>
+        <v>0.04064372921282692</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07413791507977104</v>
+        <v>0.07230558206975818</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05561756714356313</v>
+        <v>0.05552180870822681</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08318866056602803</v>
+        <v>0.08280876174165901</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008841927430505719</v>
+        <v>0.009926687424065959</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01262761416714578</v>
+        <v>0.01229880296039058</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005823358538289376</v>
+        <v>0.004898690388897791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03191842751427625</v>
+        <v>0.03227729481749573</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03626389178510565</v>
+        <v>0.03667112957836976</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04568184376032893</v>
+        <v>0.04552583859175723</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03734589285824585</v>
+        <v>0.03708036952663578</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07023454138772735</v>
+        <v>0.06919139014458116</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02549744904896082</v>
+        <v>0.02576586649143424</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03140949445100462</v>
+        <v>0.03184162069889657</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02364308972079346</v>
+        <v>0.02399851927254961</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05342313213386871</v>
+        <v>0.05352331593454818</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0356567714854169</v>
+        <v>0.03719783130503349</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0455554413166667</v>
+        <v>0.04440882927773057</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03218874358740278</v>
+        <v>0.03016540996519465</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0614318474467235</v>
+        <v>0.06014480053350301</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09069735653919229</v>
+        <v>0.09124504624309666</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09301174240632901</v>
+        <v>0.09117911367741795</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08043726606937129</v>
+        <v>0.08214353930331671</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1005385855512606</v>
+        <v>0.1009691670458027</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05417624473842212</v>
+        <v>0.05465021934699608</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05794910218117536</v>
+        <v>0.05823790339909266</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04862019175923679</v>
+        <v>0.04872188649455721</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07485211705956436</v>
+        <v>0.07385224900552213</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03229546593476006</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05929277538447021</v>
+        <v>0.05929277538447022</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.07548016655069685</v>
@@ -1241,7 +1241,7 @@
         <v>0.06763221960657183</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.09169384808874993</v>
+        <v>0.09169384808874995</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02477389687944157</v>
+        <v>0.02484723192773636</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03496969352908139</v>
+        <v>0.03565820827286154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02661491977291026</v>
+        <v>0.02610641188411474</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05223671883932841</v>
+        <v>0.05087295812252824</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06690619456496967</v>
+        <v>0.06688149865653846</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1035849367719932</v>
+        <v>0.1041153277364537</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09178123884644161</v>
+        <v>0.09143265318700336</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1132670070556556</v>
+        <v>0.113614938110888</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04812834545826599</v>
+        <v>0.04738177062758788</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0723003846210946</v>
+        <v>0.07264682817116772</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06174858926004774</v>
+        <v>0.06161602062332749</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0855969381343855</v>
+        <v>0.08568139871533519</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03653268249646949</v>
+        <v>0.03691306958881777</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05034399587008084</v>
+        <v>0.04981024469069704</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03902917089899761</v>
+        <v>0.03852087386341574</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06781360269470184</v>
+        <v>0.06749225719563767</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08432920341088677</v>
+        <v>0.08513799581800066</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.124319157783349</v>
+        <v>0.1255781893537807</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1121401898441711</v>
+        <v>0.1126562620597548</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.13193985399752</v>
+        <v>0.1310919193187004</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05891343713916967</v>
+        <v>0.0590125782612519</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0850726962049677</v>
+        <v>0.08594701021389675</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07420186676627309</v>
+        <v>0.07369356311916951</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09798445893861114</v>
+        <v>0.09825860037369614</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>34870</v>
+        <v>32792</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>43516</v>
+        <v>45093</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45385</v>
+        <v>45814</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>54454</v>
+        <v>53175</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>85726</v>
+        <v>86446</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>176547</v>
+        <v>174254</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>176154</v>
+        <v>176981</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>115294</v>
+        <v>115205</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>128141</v>
+        <v>126876</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>230753</v>
+        <v>232285</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>229712</v>
+        <v>228156</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>178822</v>
+        <v>177361</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>60191</v>
+        <v>59500</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>77799</v>
+        <v>77230</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>75523</v>
+        <v>75641</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>86052</v>
+        <v>86360</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>125715</v>
+        <v>126362</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>229377</v>
+        <v>227952</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>228593</v>
+        <v>231500</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>149744</v>
+        <v>149665</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>176708</v>
+        <v>174268</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>290863</v>
+        <v>291049</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>292784</v>
+        <v>295047</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>223846</v>
+        <v>223455</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15730</v>
+        <v>16591</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>25006</v>
+        <v>25607</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15857</v>
+        <v>16260</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35343</v>
+        <v>35311</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>59327</v>
+        <v>60188</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>80527</v>
+        <v>82351</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>62173</v>
+        <v>61970</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>122961</v>
+        <v>120853</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>82727</v>
+        <v>82355</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>116289</v>
+        <v>114461</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>83014</v>
+        <v>83214</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>164835</v>
+        <v>166489</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35886</v>
+        <v>37011</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50829</v>
+        <v>51389</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35730</v>
+        <v>35798</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>63304</v>
+        <v>62928</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>94339</v>
+        <v>94789</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>119273</v>
+        <v>120004</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>96118</v>
+        <v>95894</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>160466</v>
+        <v>159467</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>121098</v>
+        <v>122598</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>162036</v>
+        <v>162209</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>123503</v>
+        <v>121732</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>210552</v>
+        <v>213482</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11916</v>
+        <v>11966</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23189</v>
+        <v>23884</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10809</v>
+        <v>10433</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35429</v>
+        <v>35360</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>38012</v>
+        <v>39196</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>57020</v>
+        <v>56289</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>38075</v>
+        <v>38403</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>89881</v>
+        <v>87835</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>54330</v>
+        <v>53903</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>88953</v>
+        <v>87271</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>53832</v>
+        <v>53214</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>129959</v>
+        <v>129927</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28168</v>
+        <v>28672</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>47597</v>
+        <v>48244</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27941</v>
+        <v>27363</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>63180</v>
+        <v>61566</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>65362</v>
+        <v>67301</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>90424</v>
+        <v>89720</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>68410</v>
+        <v>67621</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>123266</v>
+        <v>122024</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>85252</v>
+        <v>85983</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>130550</v>
+        <v>127324</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>88700</v>
+        <v>88547</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>174207</v>
+        <v>173412</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3954</v>
+        <v>4439</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6352</v>
+        <v>6187</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2951</v>
+        <v>2482</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31150</v>
+        <v>31500</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12372</v>
+        <v>12511</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20682</v>
+        <v>20611</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18288</v>
+        <v>18158</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>63938</v>
+        <v>62988</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>20101</v>
+        <v>20313</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>30020</v>
+        <v>30433</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>23558</v>
+        <v>23912</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>100771</v>
+        <v>100960</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15946</v>
+        <v>16635</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22915</v>
+        <v>22339</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16310</v>
+        <v>15285</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>59953</v>
+        <v>58697</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30942</v>
+        <v>31129</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>42110</v>
+        <v>41280</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39390</v>
+        <v>40226</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>91525</v>
+        <v>91917</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>42710</v>
+        <v>43084</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>55385</v>
+        <v>55661</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>48445</v>
+        <v>48546</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>141192</v>
+        <v>139306</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>80040</v>
+        <v>80277</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>119217</v>
+        <v>121564</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>89620</v>
+        <v>87908</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>181851</v>
+        <v>177103</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>221792</v>
+        <v>221710</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>366640</v>
+        <v>368517</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>323693</v>
+        <v>322464</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>418795</v>
+        <v>420082</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>315038</v>
+        <v>310151</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>502391</v>
+        <v>504798</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>425699</v>
+        <v>424785</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>614475</v>
+        <v>615081</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>118031</v>
+        <v>119260</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>171630</v>
+        <v>169810</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>131422</v>
+        <v>129711</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>236078</v>
+        <v>234960</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>279549</v>
+        <v>282230</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>440029</v>
+        <v>444485</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>395495</v>
+        <v>397315</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>487837</v>
+        <v>484701</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>385635</v>
+        <v>386284</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>591141</v>
+        <v>597216</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>511553</v>
+        <v>508049</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>703401</v>
+        <v>705369</v>
       </c>
     </row>
     <row r="24">
